--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksandrs\Downloads\DTT Assessment - Front end\DTT Assessment - Frontend - 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FCE9EB-C413-4CAB-9C7E-8EE170D78B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B553437E-429D-4C3F-8281-C78A13D0E22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>Subject</t>
   </si>
@@ -149,6 +149,87 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Removing hash in URL</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>Updated router history mode to createWebHistory() (no hash)</t>
+  </si>
+  <si>
+    <t>Refactored JS files</t>
+  </si>
+  <si>
+    <t>Refactored JS files to fix inconsistent indentation</t>
+  </si>
+  <si>
+    <t>Search bar feedback implementation</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>Implemented feedback for the search bar</t>
+  </si>
+  <si>
+    <t>Validation fix for the construction year</t>
+  </si>
+  <si>
+    <t>User sees a validation error for the construction year now (if its below 1901)</t>
+  </si>
+  <si>
+    <t>API service refactor according to DRY</t>
+  </si>
+  <si>
+    <t>Implemented feedback regarding the API service</t>
+  </si>
+  <si>
+    <t>Fixed console errors</t>
+  </si>
+  <si>
+    <t>No more console errors when creating/editing/deleting houses.</t>
+  </si>
+  <si>
+    <t>"/houses/" stays in URL</t>
+  </si>
+  <si>
+    <t>Houses navigation item stays active in URL</t>
+  </si>
+  <si>
+    <t>Price formatting</t>
+  </si>
+  <si>
+    <t>Added price formatting for easier readability of prices</t>
+  </si>
+  <si>
+    <t>No result image and text</t>
+  </si>
+  <si>
+    <t>If there are no search results the relevant image and text is shown</t>
+  </si>
+  <si>
+    <t>Getter added in houses store</t>
+  </si>
+  <si>
+    <t>Getter added in houses store and used in houses.vue</t>
+  </si>
+  <si>
+    <t>Number only fields added</t>
+  </si>
+  <si>
+    <t>Number only fields added in NewListing.vue and EditListing.vue</t>
+  </si>
+  <si>
+    <t>House detail store added</t>
+  </si>
+  <si>
+    <t>No more need to set each variable manually in the HouseDetails.vue</t>
+  </si>
+  <si>
+    <t>29.1</t>
   </si>
 </sst>
 </file>
@@ -474,7 +555,6 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -508,6 +588,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1768,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1783,37 +1866,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="10"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="4"/>
@@ -1822,290 +1905,386 @@
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="18">
-        <v>44932</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="17">
+        <v>45297</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18">
-        <v>44932</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="17">
+        <v>45297</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="18">
-        <v>44933</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="17">
+        <v>45298</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="18">
-        <v>44933</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="17">
+        <v>45298</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>1</v>
       </c>
-      <c r="C8" s="18">
-        <v>44933</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="17">
+        <v>45298</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>2</v>
       </c>
-      <c r="C9" s="18">
-        <v>44936</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="17">
+        <v>45301</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>5</v>
       </c>
-      <c r="C10" s="18">
-        <v>44938</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="17">
+        <v>45303</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>5</v>
       </c>
-      <c r="C11" s="18">
-        <v>44939</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="17">
+        <v>45304</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>3</v>
       </c>
-      <c r="C12" s="18">
-        <v>44939</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="17">
+        <v>45304</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>3</v>
       </c>
-      <c r="C13" s="18">
-        <v>44940</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="17">
+        <v>45305</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="18">
-        <v>44940</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="17">
+        <v>45305</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="17">
+        <v>45319</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="20"/>
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="17">
+        <v>45319</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="19"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="20"/>
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="17">
+        <v>45319</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="19"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="20"/>
+      <c r="A18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="17">
+        <v>45319</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="19"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="16">
+        <v>1</v>
+      </c>
+      <c r="C19" s="17">
+        <v>45319</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="19"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="17">
+        <v>45319</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="19"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="17">
+        <v>45320</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="19"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="20"/>
+      <c r="A22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="17">
+        <v>45320</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="19"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="20"/>
+      <c r="A23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="17">
+        <v>45320</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="19"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="20"/>
+      <c r="A24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="17">
+        <v>45320</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="19"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="20"/>
+      <c r="A25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="17">
+        <v>45320</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="19"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="17">
+        <v>45320</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="19"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="20"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="20"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2120,9 +2299,8 @@
       <c r="A30" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="14">
-        <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>21</v>
+      <c r="B30" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
